--- a/additional_data/1.Train_Operating_Company_Stations_list_2023.xlsx
+++ b/additional_data/1.Train_Operating_Company_Stations_list_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsila\Dexian_Bootcamp\Final_Capstone_Project\EDA\additional data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsila\Dexian_Bootcamp\Final_Capstone_Project\EDA\additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6789054-F882-4808-ACC2-CA51DB1FE373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F372B1EB-795E-4340-B929-5E82963059E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="1644" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="operator and stations" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </t>
   </si>
   <si>
-    <t>No.of Stations associated (As of 31 March 2023)</t>
+    <t>Stations_associated(As of 31 March 2023)</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:B16384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
